--- a/biology/Botanique/Dicentra_nevadensis/Dicentra_nevadensis.xlsx
+++ b/biology/Botanique/Dicentra_nevadensis/Dicentra_nevadensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicentra nevadensis est une espèce de plantes vivaces endémique de la sierra Nevada en Californie aux altitudes comprises entre 2 100 et 3 300 m.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante a été considérée comme étant une sous-espèce de Dicentra formosa[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante a été considérée comme étant une sous-espèce de Dicentra formosa. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Dicentra nevadensis sont finement divisées et poussent à la base de la plante[2]. Les fleurs sont en forme de cœur, blanc terne, rose ou jaune-brun, suspendues en grappes sur des tiges nues au-dessus des feuilles[1],[3]. Une fois séchées, les fleurs deviennent noires[3]. Les graines sont portées dans une capsule d'un à deux centimètres de long[1].
-La floraison a lieu entre le début et la fin de l'été[1],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Dicentra nevadensis sont finement divisées et poussent à la base de la plante. Les fleurs sont en forme de cœur, blanc terne, rose ou jaune-brun, suspendues en grappes sur des tiges nues au-dessus des feuilles,. Une fois séchées, les fleurs deviennent noires. Les graines sont portées dans une capsule d'un à deux centimètres de long.
+La floraison a lieu entre le début et la fin de l'été,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de nevad[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte[4]. Elle a été découverte dans la sierra Nevada de Californie à des altitudes situées entre 2 100 et 3 300 m[2],[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de nevad[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte. Elle a été découverte dans la sierra Nevada de Californie à des altitudes situées entre 2 100 et 3 300 m,. 
 </t>
         </is>
       </c>
